--- a/df_list_20250224.xlsx
+++ b/df_list_20250224.xlsx
@@ -6,7 +6,7 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$F$46</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$F$124</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="256">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -471,16 +471,332 @@
   </si>
   <si>
     <t>고성군 농촌공간 재구조화 및 재생 기본계획 수립 용역 제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>대구광역시 공무원교육원 교육훈련심의위원회 위원 명단 공개</t>
+  </si>
+  <si>
+    <t>A047</t>
+  </si>
+  <si>
+    <t>경기도_김포시</t>
+  </si>
+  <si>
+    <t>https://www.gimpo.go.kr/portal/ntfcPblancList.do?key=1004&amp;cate_cd=1&amp;searchCnd=40900000000&amp;pageUnit=90</t>
+  </si>
+  <si>
+    <t>2025년 마을공동체 주민제안 공모사업 선정 결과 공고</t>
+  </si>
+  <si>
+    <t>A122</t>
+  </si>
+  <si>
+    <t>전라도_군산시</t>
+  </si>
+  <si>
+    <t>https://eminwon.gunsan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05</t>
+  </si>
+  <si>
+    <t>「군산 역전종합시장 증발냉방장치 설치사업」특허공법(물품) 선정을 위한 공...</t>
+  </si>
+  <si>
+    <t>A125</t>
+  </si>
+  <si>
+    <t>전라도_익산시</t>
+  </si>
+  <si>
+    <t>https://eminwon.iksan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05&amp;cpath=</t>
+  </si>
+  <si>
+    <t>「익산시 2025년 BSC 직무성과평가 용역」 제안서 평가결과 공고</t>
+  </si>
+  <si>
+    <t>A175</t>
+  </si>
+  <si>
+    <t>경상도_울진군</t>
+  </si>
+  <si>
+    <t>https://www.uljin.go.kr/index.uljin?menuCd=DOM_000000103002007000</t>
+  </si>
+  <si>
+    <t>「2025년 울진군 목요특강 위탁 용역」제안서 평가결과 공고</t>
+  </si>
+  <si>
+    <t>“2025년 난지물재생센터 분뇨처리장 보수(A, B지) 및 준설공사(3건)” 특정기술(공법) 선정 최종 결과 공고</t>
+  </si>
+  <si>
+    <t>남산소배수지(1지) 외 1개소 내부방식공사 공법선정위원회 상정에 따른 정량적 평가 결과 공고</t>
+  </si>
+  <si>
+    <t>신기술·특허공법 선정 최종평가 결과 공고(한국냉장 앞 고가차도 보수·보강공사)</t>
+  </si>
+  <si>
+    <t>https://www.busan.go.kr/nbgosi?curPage=2</t>
+  </si>
+  <si>
+    <t>https://www.busan.go.kr/nbgosi?curPage=3</t>
+  </si>
+  <si>
+    <t>A025</t>
+  </si>
+  <si>
+    <t>경기고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=2</t>
+  </si>
+  <si>
+    <t>농어업소득 333 프로젝트 민간위탁사업' 수탁기관 선정심의위원회 심의위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=3</t>
+  </si>
+  <si>
+    <t>제안서 평가위원 후보자 모집 공고(The 경기패스 시스템 운영 및 고도화 용역)</t>
+  </si>
+  <si>
+    <t>「2025년 DB 시스템 품질 진단 및 개선 사업」제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.suwon.go.kr/web/saeallOfr/BD_ofrList.do?q_currPage=5</t>
+  </si>
+  <si>
+    <t>A042</t>
+  </si>
+  <si>
+    <t>경기도_과천시</t>
+  </si>
+  <si>
+    <t>https://www.gccity.go.kr/portal/saeol/gosi/list.do?mId=0301040000</t>
+  </si>
+  <si>
+    <t>2025년 마을공동체 주민제안 공모사업 선정결과 공고</t>
+  </si>
+  <si>
+    <t>A051</t>
+  </si>
+  <si>
+    <t>경기도_성남시</t>
+  </si>
+  <si>
+    <t>https://eminwon.seongnam.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05,06,07</t>
+  </si>
+  <si>
+    <t>성남시 청춘남녀 만남행사 ‘SOLO MON의 선택’ 용역 제안서 평가위원...</t>
+  </si>
+  <si>
+    <t>https://www.ansan.go.kr/www/common/bbs/selectPageListBbs.do?bbs_code=WWW13&amp;currentPage=2</t>
+  </si>
+  <si>
+    <t>A059</t>
+  </si>
+  <si>
+    <t>경기도_안성시</t>
+  </si>
+  <si>
+    <t>https://www.anseong.go.kr/portal/saeol/gosiList.do?mId=0501040000&amp;token=1717572030185</t>
+  </si>
+  <si>
+    <t>2025년 제1차 안성시보육정책위원회 개최 심의결과 공고</t>
+  </si>
+  <si>
+    <t>2025 제13회 경기정원문화박람회 행사대행 용역 제안서 평가 결과 공개</t>
+  </si>
+  <si>
+    <t>A069</t>
+  </si>
+  <si>
+    <t>경기도_포천시</t>
+  </si>
+  <si>
+    <t>https://www.pocheon.go.kr/www/selectEminwonList.do?key=12563&amp;notAncmtSeCode=01&amp;pageUnit=90</t>
+  </si>
+  <si>
+    <t>포천시 공고 제2025-567호2025년 지역공동체 주민제안 공모사업 연장 공고</t>
+  </si>
+  <si>
+    <t>https://www.gn.go.kr/www/selectGosiNttList.do?key=263&amp;searchGosiSe=01,04,06&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>A076</t>
+  </si>
+  <si>
+    <t>강원도_동해시</t>
+  </si>
+  <si>
+    <t>https://www.dh.go.kr/www/selectBbsNttList.do?bbsNo=87&amp;key=478&amp;recordCountPerPage=90</t>
+  </si>
+  <si>
+    <t>「동해시 국가정보통신서비스 회선 사업자 선정」 제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>[양구군 공고 제2025-288호] 「양구군 댐 영향분석 및 편익환원 연구용역」제안서 평가위원(후보자) 공        ...</t>
+  </si>
+  <si>
+    <t>A084</t>
+  </si>
+  <si>
+    <t>강원도_양양군</t>
+  </si>
+  <si>
+    <t>https://eminwon.yangyang.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,05,06</t>
+  </si>
+  <si>
+    <t>「수산항 어촌신활력증진사업(유형1)」기본계획 수립용역 제안서 평가위원회 평가결과 공고</t>
+  </si>
+  <si>
+    <t>A089</t>
+  </si>
+  <si>
+    <t>강원도_평창군</t>
+  </si>
+  <si>
+    <t>https://www.pc.go.kr/portal/government/government-notification</t>
+  </si>
+  <si>
+    <t>산양삼융복합지원센터 조성사업 전시홍보관 제작·설치 제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>백현지구 급경사지 사면보강공사 특정공법 심의위원 명단 및 정성적 평가 결과공고</t>
+  </si>
+  <si>
+    <t>옥산면 금계보 개보수사업 특정공법(가동보)선정 기술제안서 제출안내 공고(정정)</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=4</t>
+  </si>
+  <si>
+    <t>솔밭공원 유아숲체험원 교육 운영 용역 제안서 평가 결과 공고문</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=7</t>
+  </si>
+  <si>
+    <t>「정중근린공원 물놀이장 종합 놀이시설 제안 및 제작·설치」제안서 평가위원회 명단 및 정성적 평가 결과 공고</t>
+  </si>
+  <si>
+    <t>옥산면 금계보 개보수사업 특정공법(가동보)선정 기술제안서 제출안내 공고(...</t>
+  </si>
+  <si>
+    <t>백현지구 급경사지 사면보강공사 특정공법 심의위원 명단 및 정성적 평가 결...</t>
+  </si>
+  <si>
+    <t>https://www.eumseong.go.kr/www/selectEminwonList.do?key=80&amp;pageUnit=10&amp;ofr_pageSize=10&amp;amp;not_ancmt_se_code=01,02,03,04,05&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>A111</t>
+  </si>
+  <si>
+    <t>충청도_보령시</t>
+  </si>
+  <si>
+    <t>https://www.brcn.go.kr/prog/eminwon/kor/BB/sub04_03_01/list.do?pageIndex=1</t>
+  </si>
+  <si>
+    <t>교성 자연재해위험개선지구 정비사업 신기술·특허공법 선정 기술제안서 제출안내 공고</t>
+  </si>
+  <si>
+    <t>A113</t>
+  </si>
+  <si>
+    <t>충청도_아산시</t>
+  </si>
+  <si>
+    <t>https://eminwon.asan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,06,07&amp;ofr_pageSize=10&amp;epcCheck=Y</t>
+  </si>
+  <si>
+    <t>아산시 공공디자인 진흥계획 재정비 수립 용역 제안서 평가 결과 공개 공고</t>
+  </si>
+  <si>
+    <t>A130</t>
+  </si>
+  <si>
+    <t>전라도_부안군</t>
+  </si>
+  <si>
+    <t>https://www.buan.go.kr/board/list.buan?boardId=BBS_0000054&amp;menuCd=DOM_000000103001003000&amp;contentsSid=84&amp;startPage=1</t>
+  </si>
+  <si>
+    <t>부안군 지질유산 발굴 학술조사 용역 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>http://www.suncheon.go.kr/kr/news/0004/0005/0001/?x=1&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>A141</t>
+  </si>
+  <si>
+    <t>전라도_강진군</t>
+  </si>
+  <si>
+    <t>https://www.gangjin.go.kr/www/government/notice/gosi?page=1</t>
+  </si>
+  <si>
+    <t>「가우도 빛의 숲 관광갤러리 조성 콘텐츠 구축사업」 제안서 평가..새로운글</t>
+  </si>
+  <si>
+    <t>A155</t>
+  </si>
+  <si>
+    <t>전라도_함평군</t>
+  </si>
+  <si>
+    <t>https://www.hampyeong.go.kr/pg/GosiList.do?pageId=www273</t>
+  </si>
+  <si>
+    <t>「함평엑스포공원 관광인프라 상징 조형물 제작·설치」제안서 평가위원회 평가...</t>
+  </si>
+  <si>
+    <t>https://www.gyeongju.go.kr/open_content/ko/page.do?mnu_uid=423&amp;pageNo=2</t>
+  </si>
+  <si>
+    <t>A165</t>
+  </si>
+  <si>
+    <t>경상도_영주시</t>
+  </si>
+  <si>
+    <t>https://www.yeongju.go.kr/open_content/main/page.do?mnu_uid=10619&amp;boardType=notice&amp;pageSize=90</t>
+  </si>
+  <si>
+    <t>영주시 스마트 주차시스템 구축사업 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>제안서 평가위원(후보자) 모집공고</t>
+  </si>
+  <si>
+    <t>https://www.changwon.go.kr/cwportal/10310/10438/10439.web?&amp;cpage=4</t>
+  </si>
+  <si>
+    <t>A186</t>
+  </si>
+  <si>
+    <t>경상도_거제시</t>
+  </si>
+  <si>
+    <t>https://www.geoje.go.kr/index.geoje?menuCd=DOM_000008902001002001&amp;listRow=90</t>
+  </si>
+  <si>
+    <t>2025년 제1회 거제시 보육정책위원회 심의.의결 사항 결정 공고</t>
+  </si>
+  <si>
+    <t>거제시 농촌신활력플러스사업 아열대 농업인 육성아카데미 용역 제안서 평가위원 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.jinju.go.kr/00130/02730/05586.web?&amp;cpage=2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -502,6 +818,10 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -532,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -542,6 +862,18 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1683,84 +2015,1566 @@
         <v>45712.55326388889</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F47" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F49" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E51" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E52" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E53" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F55" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E58" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F58" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E62" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E63" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F63" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E64" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F64" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F65" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66" s="7">
+        <v>45711.0</v>
+      </c>
+      <c r="F66" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F67" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E68" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F69" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E70" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F70" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F71" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E72" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F72" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E73" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F73" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E74" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F74" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F75" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E76" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F76" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E77" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F77" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E78" s="7">
+        <v>45711.0</v>
+      </c>
+      <c r="F78" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E79" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F79" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E80" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F80" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E81" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F81" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E82" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F82" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E83" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F83" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E84" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F84" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E85" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F85" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E86" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F86" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E87" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F87" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E88" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F88" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E89" s="7">
+        <v>45711.0</v>
+      </c>
+      <c r="F89" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E90" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F90" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E91" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F91" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E92" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F92" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E93" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F93" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E94" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F94" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E95" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F95" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E96" s="7">
+        <v>45711.0</v>
+      </c>
+      <c r="F96" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E97" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F97" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E98" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F98" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E99" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F99" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E100" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F100" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E101" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F101" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E102" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F102" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E103" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F103" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E104" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F104" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E105" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F105" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E106" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F106" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E107" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F107" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E108" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F108" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E109" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F109" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E110" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F110" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E111" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F111" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E112" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F112" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E113" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F113" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E114" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F114" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E115" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F115" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E116" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F116" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E117" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F117" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E118" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F118" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E119" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F119" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E120" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F120" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E121" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F121" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E122" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F122" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E123" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F123" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E124" s="7">
+        <v>45712.0</v>
+      </c>
+      <c r="F124" s="7">
+        <v>45712.996030092596</v>
+      </c>
+    </row>
     <row r="125" ht="15.75" customHeight="1"/>
     <row r="126" ht="15.75" customHeight="1"/>
     <row r="127" ht="15.75" customHeight="1"/>
@@ -2638,10 +4452,90 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$F$46"/>
+  <autoFilter ref="$A$1:$F$124"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C47"/>
+    <hyperlink r:id="rId2" ref="C48"/>
+    <hyperlink r:id="rId3" ref="C49"/>
+    <hyperlink r:id="rId4" ref="C50"/>
+    <hyperlink r:id="rId5" ref="C51"/>
+    <hyperlink r:id="rId6" ref="C52"/>
+    <hyperlink r:id="rId7" ref="C53"/>
+    <hyperlink r:id="rId8" location="list/1" ref="C54"/>
+    <hyperlink r:id="rId9" location="list/1" ref="C55"/>
+    <hyperlink r:id="rId10" location="list/1" ref="C56"/>
+    <hyperlink r:id="rId11" location="list/1" ref="C57"/>
+    <hyperlink r:id="rId12" location="list/1" ref="C58"/>
+    <hyperlink r:id="rId13" ref="C59"/>
+    <hyperlink r:id="rId14" ref="C60"/>
+    <hyperlink r:id="rId15" ref="C61"/>
+    <hyperlink r:id="rId16" location="page=2" ref="C62"/>
+    <hyperlink r:id="rId17" location="page=3" ref="C63"/>
+    <hyperlink r:id="rId18" ref="C64"/>
+    <hyperlink r:id="rId19" ref="C65"/>
+    <hyperlink r:id="rId20" ref="C66"/>
+    <hyperlink r:id="rId21" ref="C67"/>
+    <hyperlink r:id="rId22" ref="C68"/>
+    <hyperlink r:id="rId23" ref="C69"/>
+    <hyperlink r:id="rId24" ref="C70"/>
+    <hyperlink r:id="rId25" ref="C71"/>
+    <hyperlink r:id="rId26" ref="C72"/>
+    <hyperlink r:id="rId27" ref="C73"/>
+    <hyperlink r:id="rId28" ref="C74"/>
+    <hyperlink r:id="rId29" ref="C75"/>
+    <hyperlink r:id="rId30" ref="C76"/>
+    <hyperlink r:id="rId31" ref="C77"/>
+    <hyperlink r:id="rId32" ref="C78"/>
+    <hyperlink r:id="rId33" ref="C79"/>
+    <hyperlink r:id="rId34" ref="C80"/>
+    <hyperlink r:id="rId35" ref="C81"/>
+    <hyperlink r:id="rId36" ref="C82"/>
+    <hyperlink r:id="rId37" ref="C83"/>
+    <hyperlink r:id="rId38" ref="C84"/>
+    <hyperlink r:id="rId39" ref="C85"/>
+    <hyperlink r:id="rId40" ref="C86"/>
+    <hyperlink r:id="rId41" ref="C87"/>
+    <hyperlink r:id="rId42" ref="C88"/>
+    <hyperlink r:id="rId43" ref="C89"/>
+    <hyperlink r:id="rId44" ref="C90"/>
+    <hyperlink r:id="rId45" ref="C91"/>
+    <hyperlink r:id="rId46" ref="C92"/>
+    <hyperlink r:id="rId47" ref="C93"/>
+    <hyperlink r:id="rId48" ref="C94"/>
+    <hyperlink r:id="rId49" ref="C95"/>
+    <hyperlink r:id="rId50" ref="C96"/>
+    <hyperlink r:id="rId51" ref="C97"/>
+    <hyperlink r:id="rId52" ref="C98"/>
+    <hyperlink r:id="rId53" ref="C99"/>
+    <hyperlink r:id="rId54" ref="C100"/>
+    <hyperlink r:id="rId55" ref="C101"/>
+    <hyperlink r:id="rId56" ref="C102"/>
+    <hyperlink r:id="rId57" ref="C103"/>
+    <hyperlink r:id="rId58" ref="C104"/>
+    <hyperlink r:id="rId59" ref="C105"/>
+    <hyperlink r:id="rId60" ref="C106"/>
+    <hyperlink r:id="rId61" ref="C107"/>
+    <hyperlink r:id="rId62" ref="C108"/>
+    <hyperlink r:id="rId63" ref="C109"/>
+    <hyperlink r:id="rId64" ref="C110"/>
+    <hyperlink r:id="rId65" ref="C111"/>
+    <hyperlink r:id="rId66" ref="C112"/>
+    <hyperlink r:id="rId67" ref="C113"/>
+    <hyperlink r:id="rId68" ref="C114"/>
+    <hyperlink r:id="rId69" ref="C115"/>
+    <hyperlink r:id="rId70" ref="C116"/>
+    <hyperlink r:id="rId71" ref="C117"/>
+    <hyperlink r:id="rId72" ref="C118"/>
+    <hyperlink r:id="rId73" ref="C119"/>
+    <hyperlink r:id="rId74" ref="C120"/>
+    <hyperlink r:id="rId75" ref="C121"/>
+    <hyperlink r:id="rId76" ref="C122"/>
+    <hyperlink r:id="rId77" ref="C123"/>
+    <hyperlink r:id="rId78" ref="C124"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId79"/>
 </worksheet>
 </file>